--- a/data/trans_orig/IP16B98-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B98-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ABB73B4-145A-4D57-9F66-2FDC517EAE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38B097AC-1B5F-4106-9A2A-8CE548469E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{DCC7E846-90B8-4B96-BAA7-4EEC94C0C121}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{719BEBC8-187E-44EF-A631-7855724F905E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -117,6 +117,39 @@
     <t>75,92%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -132,9 +165,6 @@
     <t>8,43%</t>
   </si>
   <si>
-    <t>31,46%</t>
-  </si>
-  <si>
     <t>85,85%</t>
   </si>
   <si>
@@ -147,36 +177,6 @@
     <t>91,57%</t>
   </si>
   <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
     <t>7,76%</t>
   </si>
   <si>
@@ -264,6 +264,24 @@
     <t>95,7%</t>
   </si>
   <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
     <t>11,83%</t>
   </si>
   <si>
@@ -280,24 +298,6 @@
   </si>
   <si>
     <t>92,68%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
   </si>
   <si>
     <t>6,59%</t>
@@ -731,7 +731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09D0552-664E-4902-A16D-FF7392BD791E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F537C1DC-F142-4B92-86E6-784290E1AACD}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1098</v>
+        <v>673</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -1037,7 +1037,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>1097</v>
+        <v>673</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>30</v>
@@ -1055,10 +1055,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>6656</v>
+        <v>6634</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>32</v>
@@ -1070,10 +1070,10 @@
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>5259</v>
+        <v>3523</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>19</v>
@@ -1085,10 +1085,10 @@
         <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N8" s="7">
-        <v>11916</v>
+        <v>10157</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>35</v>
@@ -1106,10 +1106,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="7">
-        <v>7754</v>
+        <v>7307</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>21</v>
@@ -1121,10 +1121,10 @@
         <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I9" s="7">
-        <v>5259</v>
+        <v>3523</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>21</v>
@@ -1136,10 +1136,10 @@
         <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N9" s="7">
-        <v>13013</v>
+        <v>10830</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>21</v>
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>673</v>
+        <v>1098</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>38</v>
@@ -1192,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>673</v>
+        <v>1097</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>41</v>
@@ -1210,10 +1210,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="7">
-        <v>6634</v>
+        <v>6656</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>42</v>
@@ -1225,10 +1225,10 @@
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I11" s="7">
-        <v>3523</v>
+        <v>5259</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>19</v>
@@ -1240,10 +1240,10 @@
         <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N11" s="7">
-        <v>10157</v>
+        <v>11916</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>45</v>
@@ -1261,10 +1261,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>7307</v>
+        <v>7754</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>21</v>
@@ -1276,10 +1276,10 @@
         <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>3523</v>
+        <v>5259</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>21</v>
@@ -1291,10 +1291,10 @@
         <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N12" s="7">
-        <v>10830</v>
+        <v>13013</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>21</v>
@@ -1477,7 +1477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440CF963-3B67-41C1-9070-39AEEC7D78F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6ECC65F-0145-4A14-A1B1-ADFA99E05FA7}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1801,10 +1801,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" s="7">
-        <v>10730</v>
+        <v>8329</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>19</v>
@@ -1816,10 +1816,10 @@
         <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>6984</v>
+        <v>5830</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>19</v>
@@ -1831,10 +1831,10 @@
         <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N8" s="7">
-        <v>17714</v>
+        <v>14159</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>19</v>
@@ -1852,10 +1852,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9" s="7">
-        <v>10730</v>
+        <v>8329</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>21</v>
@@ -1867,10 +1867,10 @@
         <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="7">
-        <v>6984</v>
+        <v>5830</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>21</v>
@@ -1882,10 +1882,10 @@
         <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N9" s="7">
-        <v>17714</v>
+        <v>14159</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>21</v>
@@ -1956,10 +1956,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7">
-        <v>8329</v>
+        <v>10730</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>19</v>
@@ -1971,10 +1971,10 @@
         <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I11" s="7">
-        <v>5830</v>
+        <v>6984</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>19</v>
@@ -1986,10 +1986,10 @@
         <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N11" s="7">
-        <v>14159</v>
+        <v>17714</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>19</v>
@@ -2007,10 +2007,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D12" s="7">
-        <v>8329</v>
+        <v>10730</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>21</v>
@@ -2022,10 +2022,10 @@
         <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I12" s="7">
-        <v>5830</v>
+        <v>6984</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>21</v>
@@ -2037,10 +2037,10 @@
         <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N12" s="7">
-        <v>14159</v>
+        <v>17714</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>21</v>

--- a/data/trans_orig/IP16B98-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B98-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38B097AC-1B5F-4106-9A2A-8CE548469E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9D4084E-BC32-4F5F-B6F4-F3A731236869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{719BEBC8-187E-44EF-A631-7855724F905E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CCAA88FA-80F9-47A1-9433-74253B2C9685}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="107">
   <si>
     <t>Menores según si ha consumido otros medicamentos recetados por el médico en 2012 (Tasa respuesta: 2,72%)</t>
   </si>
@@ -66,7 +66,31 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
   </si>
   <si>
     <t>No</t>
@@ -78,115 +102,145 @@
     <t>0%</t>
   </si>
   <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
     <t>15,69%</t>
   </si>
   <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>24,78%</t>
+    <t>24,2%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>25,38%</t>
+    <t>22,03%</t>
   </si>
   <si>
     <t>7,52%</t>
@@ -195,151 +249,115 @@
     <t>1,74%</t>
   </si>
   <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según si ha consumido otros medicamentos recetados por el médico en 2015 (Tasa respuesta: 3,06%)</t>
   </si>
   <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
   </si>
   <si>
     <t>8,64%</t>
   </si>
   <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>19,56%</t>
+    <t>20,04%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>11,8%</t>
+    <t>15,58%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
   </si>
 </sst>
 </file>
@@ -350,7 +368,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -446,39 +464,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -530,7 +548,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -641,13 +659,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -656,6 +667,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -720,19 +738,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F537C1DC-F142-4B92-86E6-784290E1AACD}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01394E80-CBD3-4189-B93A-04CEBEEB608C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -849,10 +887,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>4304</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -864,34 +902,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>1209</v>
+        <v>4823</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="N4" s="7">
-        <v>1209</v>
+        <v>9128</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -900,10 +938,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>7743</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -915,34 +953,34 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>6807</v>
+        <v>627</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M5" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>14550</v>
+        <v>627</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -951,49 +989,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>7743</v>
+        <v>4304</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>8016</v>
+        <v>5450</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N6" s="7">
-        <v>15759</v>
+        <v>9755</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1004,49 +1042,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>673</v>
+        <v>7055</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>4036</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>673</v>
+        <v>11091</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1055,49 +1093,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>6634</v>
+        <v>673</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>3523</v>
+        <v>582</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M8" s="7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>10157</v>
+        <v>1255</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1106,102 +1144,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="7">
-        <v>7307</v>
+        <v>7728</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I9" s="7">
-        <v>3523</v>
+        <v>4618</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N9" s="7">
-        <v>10830</v>
+        <v>12346</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>1098</v>
+        <v>4330</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>4875</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>1097</v>
+        <v>9205</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1210,49 +1248,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>6656</v>
+        <v>1097</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>5259</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="M11" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>11916</v>
+        <v>1097</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1261,102 +1299,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>7754</v>
+        <v>5427</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>5259</v>
+        <v>4875</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N12" s="7">
-        <v>13013</v>
+        <v>10302</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>1771</v>
+        <v>5344</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>1209</v>
+        <v>1854</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>2980</v>
+        <v>7199</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1365,49 +1403,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>21032</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H14" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>15589</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="7">
-        <v>53</v>
-      </c>
-      <c r="N14" s="7">
-        <v>36622</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1416,55 +1454,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>8</v>
+      </c>
+      <c r="D15" s="7">
+        <v>5344</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>3</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1854</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>11</v>
+      </c>
+      <c r="N15" s="7">
+        <v>7199</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7">
+        <v>21032</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
+        <v>23</v>
+      </c>
+      <c r="I16" s="7">
+        <v>15589</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="7">
+        <v>53</v>
+      </c>
+      <c r="N16" s="7">
+        <v>36622</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1771</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1209</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" s="7">
+        <v>4</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2980</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>32</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>22803</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>25</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>16798</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
         <v>57</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>39602</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>21</v>
+      <c r="O18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1477,8 +1676,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6ECC65F-0145-4A14-A1B1-ADFA99E05FA7}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F57DD99-CC88-4BDE-BEF5-AC169A0FDE89}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1494,7 +1693,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1598,46 +1797,46 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>1522</v>
+        <v>1192</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>554</v>
+        <v>3774</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>2076</v>
+        <v>4966</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1646,49 +1845,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>2517</v>
+        <v>1522</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>8299</v>
+        <v>554</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="M5" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>10817</v>
+        <v>2076</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1697,49 +1896,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>4039</v>
+        <v>2714</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>8853</v>
+        <v>4328</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="N6" s="7">
-        <v>12893</v>
+        <v>7042</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1750,49 +1949,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>7012</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>7828</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>14839</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1801,49 +2000,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>8329</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>5830</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>14159</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1852,102 +2051,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="7">
-        <v>8329</v>
+        <v>7012</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I9" s="7">
-        <v>5830</v>
+        <v>7828</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
       </c>
       <c r="N9" s="7">
-        <v>14159</v>
+        <v>14839</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>7808</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>5587</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>13395</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,49 +2155,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>10730</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>6984</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="M11" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>17714</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,102 +2206,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>10730</v>
+        <v>7808</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>6984</v>
+        <v>5587</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N12" s="7">
-        <v>17714</v>
+        <v>13395</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>1522</v>
+        <v>5565</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>554</v>
+        <v>3925</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N13" s="7">
-        <v>2076</v>
+        <v>9489</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2111,49 +2310,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>21576</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="H14" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>21114</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>42690</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2162,55 +2361,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>8</v>
+      </c>
+      <c r="D15" s="7">
+        <v>5565</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>6</v>
+      </c>
+      <c r="I15" s="7">
+        <v>3925</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>14</v>
+      </c>
+      <c r="N15" s="7">
+        <v>9489</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>31</v>
+      </c>
+      <c r="D16" s="7">
+        <v>21576</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
+        <v>31</v>
+      </c>
+      <c r="I16" s="7">
+        <v>21114</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="7">
+        <v>62</v>
+      </c>
+      <c r="N16" s="7">
+        <v>42690</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1522</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>554</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" s="7">
+        <v>3</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2076</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>33</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>23098</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>32</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>21668</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
         <v>65</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>44766</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>21</v>
+      <c r="O18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP16B98-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B98-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9D4084E-BC32-4F5F-B6F4-F3A731236869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{324FE992-D97A-4449-A75C-F60F38B6C4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CCAA88FA-80F9-47A1-9433-74253B2C9685}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DB845E08-DA11-4FA1-8E30-A28B96EE177E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="105">
   <si>
     <t>Menores según si ha consumido otros medicamentos recetados por el médico en 2012 (Tasa respuesta: 2,72%)</t>
   </si>
@@ -84,13 +84,13 @@
     <t>88,49%</t>
   </si>
   <si>
-    <t>45,35%</t>
+    <t>47,83%</t>
   </si>
   <si>
     <t>93,57%</t>
   </si>
   <si>
-    <t>72,64%</t>
+    <t>66,67%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,13 +108,13 @@
     <t>11,51%</t>
   </si>
   <si>
-    <t>54,65%</t>
+    <t>52,17%</t>
   </si>
   <si>
     <t>6,43%</t>
   </si>
   <si>
-    <t>27,36%</t>
+    <t>33,33%</t>
   </si>
   <si>
     <t>3-7</t>
@@ -123,37 +123,37 @@
     <t>91,29%</t>
   </si>
   <si>
-    <t>64,31%</t>
+    <t>60,55%</t>
   </si>
   <si>
     <t>87,4%</t>
   </si>
   <si>
-    <t>45,89%</t>
+    <t>45,45%</t>
   </si>
   <si>
     <t>89,83%</t>
   </si>
   <si>
-    <t>68,28%</t>
+    <t>68,37%</t>
   </si>
   <si>
     <t>8,71%</t>
   </si>
   <si>
-    <t>35,69%</t>
+    <t>39,45%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>54,11%</t>
+    <t>54,55%</t>
   </si>
   <si>
     <t>10,17%</t>
   </si>
   <si>
-    <t>31,72%</t>
+    <t>31,63%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -162,7 +162,7 @@
     <t>79,78%</t>
   </si>
   <si>
-    <t>27,74%</t>
+    <t>30,41%</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -171,13 +171,13 @@
     <t>89,35%</t>
   </si>
   <si>
-    <t>58,63%</t>
+    <t>59,51%</t>
   </si>
   <si>
     <t>20,22%</t>
   </si>
   <si>
-    <t>72,26%</t>
+    <t>69,59%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -186,7 +186,7 @@
     <t>10,65%</t>
   </si>
   <si>
-    <t>41,37%</t>
+    <t>40,49%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -213,49 +213,49 @@
     <t>92,24%</t>
   </si>
   <si>
-    <t>75,8%</t>
+    <t>73,76%</t>
   </si>
   <si>
     <t>92,8%</t>
   </si>
   <si>
-    <t>77,97%</t>
+    <t>75,62%</t>
   </si>
   <si>
     <t>92,48%</t>
   </si>
   <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>24,2%</t>
+    <t>26,24%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>22,03%</t>
+    <t>24,38%</t>
   </si>
   <si>
     <t>7,52%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
-    <t>Menores según si ha consumido otros medicamentos recetados por el médico en 2015 (Tasa respuesta: 3,06%)</t>
+    <t>Menores según si ha consumido otros medicamentos recetados por el médico en 2016 (Tasa respuesta: 3,06%)</t>
   </si>
   <si>
     <t>43,91%</t>
@@ -264,16 +264,16 @@
     <t>87,21%</t>
   </si>
   <si>
-    <t>44,99%</t>
+    <t>44,65%</t>
   </si>
   <si>
     <t>70,52%</t>
   </si>
   <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
   </si>
   <si>
     <t>56,09%</t>
@@ -282,16 +282,16 @@
     <t>12,79%</t>
   </si>
   <si>
-    <t>55,01%</t>
+    <t>55,35%</t>
   </si>
   <si>
     <t>29,48%</t>
   </si>
   <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
   </si>
   <si>
     <t>82,92%</t>
@@ -321,43 +321,37 @@
     <t>93,41%</t>
   </si>
   <si>
-    <t>79,96%</t>
+    <t>79,88%</t>
   </si>
   <si>
     <t>97,45%</t>
   </si>
   <si>
-    <t>84,42%</t>
+    <t>84,35%</t>
   </si>
   <si>
     <t>95,36%</t>
   </si>
   <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
+    <t>87,88%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>20,04%</t>
+    <t>20,12%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>15,58%</t>
+    <t>15,65%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
+    <t>12,12%</t>
   </si>
 </sst>
 </file>
@@ -769,7 +763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01394E80-CBD3-4189-B93A-04CEBEEB608C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F378C7DF-AB08-4597-86FF-86197BBE66BD}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1676,7 +1670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F57DD99-CC88-4BDE-BEF5-AC169A0FDE89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763270FB-F681-43E3-B51D-D16420CAE1F4}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2456,7 +2450,7 @@
         <v>98</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,13 +2465,13 @@
         <v>1522</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2486,13 +2480,13 @@
         <v>554</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -2501,13 +2495,13 @@
         <v>2076</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16B98-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B98-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{324FE992-D97A-4449-A75C-F60F38B6C4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{537A4E52-4620-4467-B3EB-93225BE6107A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DB845E08-DA11-4FA1-8E30-A28B96EE177E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F44A0EE7-BB48-4247-A8F0-440492F36A25}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,15 +37,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="107">
   <si>
     <t>Menores según si ha consumido otros medicamentos recetados por el médico en 2012 (Tasa respuesta: 2,72%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -72,6 +72,12 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
@@ -81,175 +87,169 @@
     <t>100%</t>
   </si>
   <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
     <t>93,57%</t>
   </si>
   <si>
-    <t>66,67%</t>
+    <t>72,48%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>11,51%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>48,99%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
     <t>6,43%</t>
   </si>
   <si>
-    <t>33,33%</t>
+    <t>27,52%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
     <t>91,29%</t>
   </si>
   <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
+    <t>56,72%</t>
   </si>
   <si>
     <t>89,83%</t>
   </si>
   <si>
-    <t>68,37%</t>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
   </si>
   <si>
     <t>8,71%</t>
   </si>
   <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
+    <t>43,28%</t>
   </si>
   <si>
     <t>10,17%</t>
   </si>
   <si>
-    <t>31,63%</t>
+    <t>31,35%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>76,75%</t>
+  </si>
+  <si>
     <t>79,78%</t>
   </si>
   <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
+    <t>31,28%</t>
   </si>
   <si>
     <t>89,35%</t>
   </si>
   <si>
-    <t>59,51%</t>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
   </si>
   <si>
     <t>20,22%</t>
   </si>
   <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
+    <t>68,72%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>40,49%</t>
+    <t>46,88%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>55,59%</t>
+  </si>
+  <si>
     <t>79,25%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
     <t>84,31%</t>
   </si>
   <si>
+    <t>44,41%</t>
+  </si>
+  <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
     <t>15,69%</t>
   </si>
   <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
     <t>92,24%</t>
   </si>
   <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
+    <t>75,22%</t>
   </si>
   <si>
     <t>92,48%</t>
   </si>
   <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
+    <t>24,78%</t>
   </si>
   <si>
     <t>7,52%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -258,40 +258,40 @@
     <t>Menores según si ha consumido otros medicamentos recetados por el médico en 2016 (Tasa respuesta: 3,06%)</t>
   </si>
   <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
     <t>43,91%</t>
   </si>
   <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
     <t>70,52%</t>
   </si>
   <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
   </si>
   <si>
     <t>56,09%</t>
   </si>
   <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
     <t>29,48%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
   </si>
   <si>
     <t>82,92%</t>
@@ -318,40 +318,46 @@
     <t>12,61%</t>
   </si>
   <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
     <t>93,41%</t>
   </si>
   <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
+    <t>80,44%</t>
   </si>
   <si>
     <t>95,36%</t>
   </si>
   <si>
-    <t>87,88%</t>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
+    <t>19,56%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>12,12%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
   </si>
 </sst>
 </file>
@@ -763,7 +769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F378C7DF-AB08-4597-86FF-86197BBE66BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7B58D6-D4E8-4FB7-906A-F69C1B983D1D}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -881,10 +887,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>4304</v>
+        <v>4823</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -896,19 +902,19 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>4823</v>
+        <v>4304</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -923,7 +929,7 @@
         <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -932,10 +938,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>627</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -947,16 +953,16 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -971,7 +977,7 @@
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>25</v>
@@ -983,34 +989,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5450</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7">
         <v>6</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>4304</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>8</v>
-      </c>
-      <c r="I6" s="7">
-        <v>5450</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -1019,13 +1025,13 @@
         <v>9755</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1036,10 +1042,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>7055</v>
+        <v>4036</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -1048,13 +1054,13 @@
         <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>4036</v>
+        <v>7055</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>29</v>
@@ -1063,7 +1069,7 @@
         <v>30</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -1078,7 +1084,7 @@
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1090,13 +1096,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>673</v>
+        <v>582</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>34</v>
@@ -1105,13 +1111,13 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>582</v>
+        <v>673</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -1126,7 +1132,7 @@
         <v>37</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>38</v>
@@ -1138,34 +1144,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7">
+        <v>4618</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7">
         <v>11</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>7728</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>7</v>
-      </c>
-      <c r="I9" s="7">
-        <v>4618</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>18</v>
@@ -1174,13 +1180,13 @@
         <v>12346</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1191,28 +1197,28 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4875</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="7">
         <v>6</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>4330</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7">
-        <v>7</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4875</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>42</v>
@@ -1233,7 +1239,7 @@
         <v>44</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1242,28 +1248,28 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>1097</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
@@ -1281,7 +1287,7 @@
         <v>48</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>49</v>
@@ -1296,31 +1302,31 @@
         <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>5427</v>
+        <v>4875</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>4875</v>
+        <v>5427</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -1329,13 +1335,13 @@
         <v>10302</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1346,34 +1352,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>5344</v>
+        <v>1854</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>1854</v>
+        <v>5344</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -1382,13 +1388,13 @@
         <v>7199</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>53</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1403,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>54</v>
@@ -1418,10 +1424,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>55</v>
@@ -1433,10 +1439,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>56</v>
@@ -1448,34 +1454,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1854</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7">
         <v>8</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>5344</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>3</v>
-      </c>
-      <c r="I15" s="7">
-        <v>1854</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
         <v>11</v>
@@ -1484,13 +1490,13 @@
         <v>7199</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1501,10 +1507,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D16" s="7">
-        <v>21032</v>
+        <v>15589</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>57</v>
@@ -1513,13 +1519,13 @@
         <v>58</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I16" s="7">
-        <v>15589</v>
+        <v>21032</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>59</v>
@@ -1528,7 +1534,7 @@
         <v>60</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -1555,13 +1561,13 @@
         <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>1771</v>
+        <v>1209</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>65</v>
@@ -1570,13 +1576,13 @@
         <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>1209</v>
+        <v>1771</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>66</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>67</v>
@@ -1603,34 +1609,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>25</v>
+      </c>
+      <c r="D18" s="7">
+        <v>16798</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="7">
         <v>32</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>22803</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>25</v>
-      </c>
-      <c r="I18" s="7">
-        <v>16798</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
         <v>57</v>
@@ -1639,13 +1645,13 @@
         <v>39602</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1670,7 +1676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763270FB-F681-43E3-B51D-D16420CAE1F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17708227-33EA-4284-9816-BE85B729F3CF}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1788,34 +1794,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>1192</v>
+        <v>3774</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>3774</v>
+        <v>1192</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -1839,34 +1845,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1522</v>
+        <v>554</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>79</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>554</v>
+        <v>1522</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -1890,34 +1896,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4328</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>2714</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>7</v>
-      </c>
-      <c r="I6" s="7">
-        <v>4328</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -1926,13 +1932,13 @@
         <v>7042</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,34 +1949,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7">
+        <v>7828</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7">
         <v>10</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>7012</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>11</v>
-      </c>
-      <c r="I7" s="7">
-        <v>7828</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -1979,13 +1985,13 @@
         <v>14839</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>86</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,29 +2006,29 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
@@ -2030,10 +2036,10 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>88</v>
@@ -2045,34 +2051,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7">
+        <v>7828</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7">
         <v>10</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>7012</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>11</v>
-      </c>
-      <c r="I9" s="7">
-        <v>7828</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -2081,13 +2087,13 @@
         <v>14839</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,34 +2104,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5587</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="7">
         <v>11</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>7808</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>8</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5587</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -2134,13 +2140,13 @@
         <v>13395</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>89</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,29 +2161,29 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
@@ -2185,10 +2191,10 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>90</v>
@@ -2200,34 +2206,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7">
+        <v>5587</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="7">
         <v>11</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>7808</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>8</v>
-      </c>
-      <c r="I12" s="7">
-        <v>5587</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
         <v>19</v>
@@ -2236,13 +2242,13 @@
         <v>13395</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,34 +2259,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3925</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="7">
         <v>8</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>5565</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>6</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3925</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -2289,13 +2295,13 @@
         <v>9489</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>91</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2310,13 +2316,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2325,13 +2331,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2340,10 +2346,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>92</v>
@@ -2355,34 +2361,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>6</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3925</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7">
         <v>8</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>5565</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>6</v>
-      </c>
-      <c r="I15" s="7">
-        <v>3925</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
         <v>14</v>
@@ -2391,13 +2397,13 @@
         <v>9489</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,7 +2417,7 @@
         <v>31</v>
       </c>
       <c r="D16" s="7">
-        <v>21576</v>
+        <v>21114</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>93</v>
@@ -2420,13 +2426,13 @@
         <v>94</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
       </c>
       <c r="I16" s="7">
-        <v>21114</v>
+        <v>21576</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>95</v>
@@ -2435,7 +2441,7 @@
         <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
         <v>62</v>
@@ -2450,7 +2456,7 @@
         <v>98</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,34 +2465,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>554</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="7">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>1522</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>554</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -2495,13 +2501,13 @@
         <v>2076</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,34 +2516,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>32</v>
+      </c>
+      <c r="D18" s="7">
+        <v>21668</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="7">
         <v>33</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>23098</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>32</v>
-      </c>
-      <c r="I18" s="7">
-        <v>21668</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
         <v>65</v>
@@ -2546,13 +2552,13 @@
         <v>44766</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
